--- a/notebooks/03_signal_generation/decomposition_full_report.xlsx
+++ b/notebooks/03_signal_generation/decomposition_full_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,25 +456,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Band Energy (BM)</t>
+          <t>Reconstruction MSE (Full)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Spectral Centroid</t>
+          <t>Reconstruction MSE (First 4 Modes)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Reconstruction MSE (Full)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Reconstruction MSE (First 4 Modes)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Number of Extracted Modes</t>
         </is>
@@ -495,22 +485,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>35880.67405241414</v>
+        <v>0.4569350964272001</v>
       </c>
       <c r="F2" t="n">
-        <v>29.99631953920088</v>
+        <v>0.4570057470809342</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2510265778229267</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.2510276207186406</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -528,22 +512,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>61815.63661037896</v>
+        <v>0.4569350964272001</v>
       </c>
       <c r="F3" t="n">
-        <v>8.585197632419046</v>
+        <v>0.4570057470809342</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2510265778229267</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.2510276207186406</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -561,22 +539,16 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>3464.295507796118</v>
+        <v>0.4569350964272001</v>
       </c>
       <c r="F4" t="n">
-        <v>6.01452622937728</v>
+        <v>0.4570057470809342</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2510265778229267</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.2510276207186406</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -594,22 +566,16 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="E5" t="n">
-        <v>515.5736325330378</v>
+        <v>0.4569350964272001</v>
       </c>
       <c r="F5" t="n">
-        <v>2.002521635270753</v>
+        <v>0.4570057470809342</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2510265778229267</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.2510276207186406</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -627,22 +593,16 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05454545454545454</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4692895409144665</v>
+        <v>0.4569350964272001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1811404912512811</v>
+        <v>0.4570057470809342</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2510265778229267</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.2510276207186406</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -660,22 +620,16 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04242424242424243</v>
+        <v>0.07878787878787878</v>
       </c>
       <c r="E7" t="n">
-        <v>1.082484967097674</v>
+        <v>0.4569350964272001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.122300388650114</v>
+        <v>0.4570057470809342</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2510265778229267</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.2510276207186406</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -686,28 +640,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pure_oscillations</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04242424242424243</v>
+        <v>8.727272727272727</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5352638064927636</v>
+        <v>8524.594940693652</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08513731234356006</v>
+        <v>8525.576640880541</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2510265778229267</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.2510276207186406</v>
-      </c>
-      <c r="I8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -719,28 +667,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pure_oscillations</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03333333333333333</v>
+        <v>3.612121212121212</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03914783474192426</v>
+        <v>8524.594940693652</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07263975305525738</v>
+        <v>8525.576640880541</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2510265778229267</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.2510276207186406</v>
-      </c>
-      <c r="I9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -752,28 +694,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pure_oscillations</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02121212121212121</v>
+        <v>1.724242424242424</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04671343465034108</v>
+        <v>8524.594940693652</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06220352749252696</v>
+        <v>8525.576640880541</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2510265778229267</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.2510276207186406</v>
-      </c>
-      <c r="I10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -789,24 +725,18 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>35880.6718709381</v>
+        <v>8524.594940693652</v>
       </c>
       <c r="F11" t="n">
-        <v>29.99631953462958</v>
+        <v>8525.576640880541</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7497553549248402</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.7497371184932544</v>
-      </c>
-      <c r="I11" t="n">
         <v>9</v>
       </c>
     </row>
@@ -822,24 +752,18 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>0.5393939393939394</v>
       </c>
       <c r="E12" t="n">
-        <v>61815.64193926523</v>
+        <v>8524.594940693652</v>
       </c>
       <c r="F12" t="n">
-        <v>8.585198684946892</v>
+        <v>8525.576640880541</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7497553549248402</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.7497371184932544</v>
-      </c>
-      <c r="I12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -855,24 +779,18 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>0.2939393939393939</v>
       </c>
       <c r="E13" t="n">
-        <v>3464.293287495103</v>
+        <v>8524.594940693652</v>
       </c>
       <c r="F13" t="n">
-        <v>6.014526789221458</v>
+        <v>8525.576640880541</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7497553549248402</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.7497371184932544</v>
-      </c>
-      <c r="I13" t="n">
         <v>9</v>
       </c>
     </row>
@@ -888,24 +806,18 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>0.03939393939393939</v>
       </c>
       <c r="E14" t="n">
-        <v>515.5818194771256</v>
+        <v>8524.594940693652</v>
       </c>
       <c r="F14" t="n">
-        <v>2.002520676650594</v>
+        <v>8525.576640880541</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7497553549248402</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.7497371184932544</v>
-      </c>
-      <c r="I14" t="n">
         <v>9</v>
       </c>
     </row>
@@ -921,24 +833,18 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1242424242424242</v>
+        <v>0.03939393939393939</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2488205113643721</v>
+        <v>8524.594940693652</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3254604893775177</v>
+        <v>8525.576640880541</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7497553549248402</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.7497371184932544</v>
-      </c>
-      <c r="I15" t="n">
         <v>9</v>
       </c>
     </row>
@@ -954,24 +860,18 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07272727272727272</v>
+        <v>0.00303030303030303</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3451347890492028</v>
+        <v>8524.594940693652</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2954361353218957</v>
+        <v>8525.576640880541</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7497553549248402</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.7497371184932544</v>
-      </c>
-      <c r="I16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -983,29 +883,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06363636363636363</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1095767347649539</v>
+        <v>0.5829560236536961</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1861035920538535</v>
+        <v>0.5830372105149344</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7497553549248402</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.7497371184932544</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1016,29 +910,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5829560236536961</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.5830372105149344</v>
+      </c>
+      <c r="G18" t="n">
         <v>7</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.04242424242424243</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.01013973750234216</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.1420305374689226</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.7497553549248402</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.7497371184932544</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1049,29 +937,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00303030303030303</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05480642298630233</v>
+        <v>0.5829560236536961</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05145024852175328</v>
+        <v>0.5830372105149344</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7497553549248402</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.7497371184932544</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1086,25 +968,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>30.0030303030303</v>
+        <v>0.6757575757575758</v>
       </c>
       <c r="E20" t="n">
-        <v>19535267.59529742</v>
+        <v>0.5829560236536961</v>
       </c>
       <c r="F20" t="n">
-        <v>29.99237836388173</v>
+        <v>0.5830372105149344</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2515448271868878</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.2516955024454093</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1119,25 +995,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>9.996969696969696</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="E21" t="n">
-        <v>22147570.53522794</v>
+        <v>0.5829560236536961</v>
       </c>
       <c r="F21" t="n">
-        <v>10.00201779546841</v>
+        <v>0.5830372105149344</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2515448271868878</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.2516955024454093</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1152,25 +1022,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>5.996969696969697</v>
+        <v>0.1757575757575758</v>
       </c>
       <c r="E22" t="n">
-        <v>20797814.88101988</v>
+        <v>0.5829560236536961</v>
       </c>
       <c r="F22" t="n">
-        <v>6.007364980262643</v>
+        <v>0.5830372105149344</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2515448271868878</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.2516955024454093</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1185,25 +1049,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>2.003030303030303</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="E23" t="n">
-        <v>32609.49324174021</v>
+        <v>0.5829560236536961</v>
       </c>
       <c r="F23" t="n">
-        <v>2.447288215734919</v>
+        <v>0.5830372105149344</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2515448271868878</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.2516955024454093</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1214,28 +1072,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.527272727272727</v>
+        <v>9.984848484848484</v>
       </c>
       <c r="E24" t="n">
-        <v>5845.59390562893</v>
+        <v>870253.2755208883</v>
       </c>
       <c r="F24" t="n">
-        <v>1.584533478092959</v>
+        <v>870255.828223784</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2515448271868878</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.2516955024454093</v>
-      </c>
-      <c r="I24" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1247,28 +1099,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8606060606060606</v>
+        <v>4.587878787878788</v>
       </c>
       <c r="E25" t="n">
-        <v>3723.101940380887</v>
+        <v>870253.2755208883</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9610753639353203</v>
+        <v>870255.828223784</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2515448271868878</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.2516955024454093</v>
-      </c>
-      <c r="I25" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1280,28 +1126,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5424242424242425</v>
+        <v>2.281818181818182</v>
       </c>
       <c r="E26" t="n">
-        <v>2400.351685764771</v>
+        <v>870253.2755208883</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6253268142430775</v>
+        <v>870255.828223784</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2515448271868878</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.2516955024454093</v>
-      </c>
-      <c r="I26" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1313,28 +1153,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1878787878787879</v>
+        <v>0.9181818181818182</v>
       </c>
       <c r="E27" t="n">
-        <v>2251.809402859054</v>
+        <v>870253.2755208883</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3174129349581174</v>
+        <v>870255.828223784</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2515448271868878</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.2516955024454093</v>
-      </c>
-      <c r="I27" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1346,28 +1180,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1454545454545454</v>
+        <v>0.4787878787878788</v>
       </c>
       <c r="E28" t="n">
-        <v>3233.266791367214</v>
+        <v>870253.2755208883</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3744239088588291</v>
+        <v>870255.828223784</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2515448271868878</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.2516955024454093</v>
-      </c>
-      <c r="I28" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1383,24 +1211,18 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>29.9969696969697</v>
+        <v>0.1909090909090909</v>
       </c>
       <c r="E29" t="n">
-        <v>54235880.66178373</v>
+        <v>870253.2755208883</v>
       </c>
       <c r="F29" t="n">
-        <v>29.99717096887635</v>
+        <v>870255.828223784</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2515554064579046</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.2516066931769936</v>
-      </c>
-      <c r="I29" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1416,24 +1238,18 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>9.996969696969696</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E30" t="n">
-        <v>83920281.39670359</v>
+        <v>870253.2755208883</v>
       </c>
       <c r="F30" t="n">
-        <v>8.916340859503388</v>
+        <v>870255.828223784</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2515554064579046</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.2516066931769936</v>
-      </c>
-      <c r="I30" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1449,24 +1265,18 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>5.996969696969697</v>
+        <v>0.03939393939393939</v>
       </c>
       <c r="E31" t="n">
-        <v>10248131.4983021</v>
+        <v>870253.2755208883</v>
       </c>
       <c r="F31" t="n">
-        <v>6.000543266582298</v>
+        <v>870255.828223784</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2515554064579046</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.2516066931769936</v>
-      </c>
-      <c r="I31" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1482,190 +1292,154 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>2.003030303030303</v>
+        <v>0.00303030303030303</v>
       </c>
       <c r="E32" t="n">
-        <v>482408.7734770174</v>
+        <v>870253.2755208883</v>
       </c>
       <c r="F32" t="n">
-        <v>2.017773078525223</v>
+        <v>870255.828223784</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2515554064579046</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.2516066931769936</v>
-      </c>
-      <c r="I32" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EMD</t>
+          <t>VMD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>mrw_modulated_with_noise</t>
+          <t>pure_oscillations</t>
         </is>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.4569598965554873</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.4569598965554873</v>
+      </c>
+      <c r="G33" t="n">
         <v>4</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.9272727272727272</v>
-      </c>
-      <c r="E33" t="n">
-        <v>7626.031075637419</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.9178875491814034</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.2515554064579046</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.2516066931769936</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EMD</t>
+          <t>VMD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>mrw_modulated_with_noise</t>
+          <t>pure_oscillations</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4757575757575758</v>
+        <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>3478.353418597935</v>
+        <v>0.4569598965554873</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5361349311448482</v>
+        <v>0.4569598965554873</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2515554064579046</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.2516066931769936</v>
-      </c>
-      <c r="I34" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EMD</t>
+          <t>VMD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>mrw_modulated_with_noise</t>
+          <t>pure_oscillations</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3181818181818182</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
-        <v>2138.509556529164</v>
+        <v>0.4569598965554873</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3080174928077424</v>
+        <v>0.4569598965554873</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2515554064579046</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.2516066931769936</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EMD</t>
+          <t>VMD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>mrw_modulated_with_noise</t>
+          <t>pure_oscillations</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1242424242424242</v>
+        <v>30</v>
       </c>
       <c r="E36" t="n">
-        <v>669.3539973793654</v>
+        <v>0.4569598965554873</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1261600825425437</v>
+        <v>0.4569598965554873</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2515554064579046</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.2516066931769936</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EMD</t>
+          <t>VMD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>mrw_modulated_with_noise</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02727272727272727</v>
+        <v>0.00303030303030303</v>
       </c>
       <c r="E37" t="n">
-        <v>1305.698855899005</v>
+        <v>8524.594942971229</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1672904456886612</v>
+        <v>8524.594942971229</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2515554064579046</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.2516066931769936</v>
-      </c>
-      <c r="I37" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1676,28 +1450,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pure_oscillations</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>4.960606060606061</v>
       </c>
       <c r="E38" t="n">
-        <v>16023.80321578695</v>
+        <v>8524.594942971229</v>
       </c>
       <c r="F38" t="n">
-        <v>6.002835360338057</v>
+        <v>8524.594942971229</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2511124005847518</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.2511124005847518</v>
-      </c>
-      <c r="I38" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1709,28 +1477,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pure_oscillations</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>30</v>
+        <v>1.351515151515152</v>
       </c>
       <c r="E39" t="n">
-        <v>35865.55201595764</v>
+        <v>8524.594942971229</v>
       </c>
       <c r="F39" t="n">
-        <v>30.0000647366847</v>
+        <v>8524.594942971229</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2511124005847518</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.2511124005847518</v>
-      </c>
-      <c r="I39" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1742,28 +1504,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pure_oscillations</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>11.73333333333333</v>
       </c>
       <c r="E40" t="n">
-        <v>41223.76611395379</v>
+        <v>8524.594942971229</v>
       </c>
       <c r="F40" t="n">
-        <v>10.00036026915846</v>
+        <v>8524.594942971229</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2511124005847518</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.2511124005847518</v>
-      </c>
-      <c r="I40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1775,28 +1531,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pure_oscillations</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>5862.681129661638</v>
+        <v>0.58298996893692</v>
       </c>
       <c r="F41" t="n">
-        <v>6.014346294043766</v>
+        <v>0.58298996893692</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2511124005847518</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.2511124005847518</v>
-      </c>
-      <c r="I41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1808,28 +1558,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>16023.57544793635</v>
+        <v>0.58298996893692</v>
       </c>
       <c r="F42" t="n">
-        <v>6.002832657724952</v>
+        <v>0.58298996893692</v>
       </c>
       <c r="G42" t="n">
-        <v>0.749840742230149</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.749840742230149</v>
-      </c>
-      <c r="I42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1841,28 +1585,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>35865.54977825463</v>
+        <v>0.58298996893692</v>
       </c>
       <c r="F43" t="n">
-        <v>30.00006472636936</v>
+        <v>0.58298996893692</v>
       </c>
       <c r="G43" t="n">
-        <v>0.749840742230149</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.749840742230149</v>
-      </c>
-      <c r="I43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1874,28 +1612,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E44" t="n">
-        <v>41223.78783669727</v>
+        <v>0.58298996893692</v>
       </c>
       <c r="F44" t="n">
-        <v>10.00036004270332</v>
+        <v>0.58298996893692</v>
       </c>
       <c r="G44" t="n">
-        <v>0.749840742230149</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.749840742230149</v>
-      </c>
-      <c r="I44" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1907,28 +1639,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>0.00303030303030303</v>
       </c>
       <c r="E45" t="n">
-        <v>5862.821804373686</v>
+        <v>870253.2755231675</v>
       </c>
       <c r="F45" t="n">
-        <v>6.014338859969468</v>
+        <v>870253.2755231675</v>
       </c>
       <c r="G45" t="n">
-        <v>0.749840742230149</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.749840742230149</v>
-      </c>
-      <c r="I45" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1940,28 +1666,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>6.003030303030303</v>
+        <v>4.942424242424242</v>
       </c>
       <c r="E46" t="n">
-        <v>8846813.719791146</v>
+        <v>870253.2755231675</v>
       </c>
       <c r="F46" t="n">
-        <v>6.007244573036968</v>
+        <v>870253.2755231675</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2516629408806287</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.2516629408806287</v>
-      </c>
-      <c r="I46" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1973,28 +1693,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>30.0030303030303</v>
+        <v>1.363636363636364</v>
       </c>
       <c r="E47" t="n">
-        <v>19508934.13810368</v>
+        <v>870253.2755231675</v>
       </c>
       <c r="F47" t="n">
-        <v>29.99770386845788</v>
+        <v>870253.2755231675</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2516629408806287</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.2516629408806287</v>
-      </c>
-      <c r="I47" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2006,194 +1720,158 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>9.996969696969696</v>
+        <v>11.77272727272727</v>
       </c>
       <c r="E48" t="n">
-        <v>22328898.93158639</v>
+        <v>870253.2755231675</v>
       </c>
       <c r="F48" t="n">
-        <v>10.00252065914037</v>
+        <v>870253.2755231675</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2516629408806287</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.2516629408806287</v>
-      </c>
-      <c r="I48" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>VMD</t>
+          <t>VMDtransformer</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>pure_oscillations</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>5.996969696969697</v>
+        <v>6</v>
       </c>
       <c r="E49" t="n">
-        <v>3129028.445178414</v>
+        <v>0.4569916017400562</v>
       </c>
       <c r="F49" t="n">
-        <v>6.032005564867426</v>
+        <v>0.4690430322598883</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2516629408806287</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.2516629408806287</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>VMD</t>
+          <t>VMDtransformer</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>mrw_modulated_with_noise</t>
+          <t>pure_oscillations</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>6.003030303030303</v>
+        <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>24226017.12113785</v>
+        <v>0.4569916017400562</v>
       </c>
       <c r="F50" t="n">
-        <v>6.00150758084208</v>
+        <v>0.4690430322598883</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2516504713459469</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.2516504713459469</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>VMD</t>
+          <t>VMDtransformer</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>mrw_modulated_with_noise</t>
+          <t>pure_oscillations</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>29.9969696969697</v>
+        <v>2.884848484848485</v>
       </c>
       <c r="E51" t="n">
-        <v>54204134.94453932</v>
+        <v>0.4569916017400562</v>
       </c>
       <c r="F51" t="n">
-        <v>29.99972279671379</v>
+        <v>0.4690430322598883</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2516504713459469</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.2516504713459469</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>VMD</t>
+          <t>VMDtransformer</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>mrw_modulated_with_noise</t>
+          <t>pure_oscillations</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>9.996969696969696</v>
+        <v>14.79090909090909</v>
       </c>
       <c r="E52" t="n">
-        <v>62206233.61503508</v>
+        <v>0.4569916017400562</v>
       </c>
       <c r="F52" t="n">
-        <v>10.00102112338273</v>
+        <v>0.4690430322598883</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2516504713459469</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.2516504713459469</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>VMD</t>
+          <t>VMDtransformer</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>mrw_modulated_with_noise</t>
+          <t>pure_oscillations</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>5.996969696969697</v>
+        <v>30</v>
       </c>
       <c r="E53" t="n">
-        <v>8848260.572330251</v>
+        <v>0.4569916017400562</v>
       </c>
       <c r="F53" t="n">
-        <v>6.004838663295565</v>
+        <v>0.4690430322598883</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2516504713459469</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.2516504713459469</v>
-      </c>
-      <c r="I53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2204,28 +1882,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pure_oscillations</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>6</v>
+        <v>0.00303030303030303</v>
       </c>
       <c r="E54" t="n">
-        <v>25976.84671727385</v>
+        <v>8524.594946099687</v>
       </c>
       <c r="F54" t="n">
-        <v>6.000212511561754</v>
+        <v>8524.595354490772</v>
       </c>
       <c r="G54" t="n">
-        <v>0.251138168190398</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.252703184090652</v>
-      </c>
-      <c r="I54" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2237,28 +1909,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pure_oscillations</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>5.072727272727272</v>
       </c>
       <c r="E55" t="n">
-        <v>37188.28380124844</v>
+        <v>8524.594946099687</v>
       </c>
       <c r="F55" t="n">
-        <v>10.00001203903687</v>
+        <v>8524.595354490772</v>
       </c>
       <c r="G55" t="n">
-        <v>0.251138168190398</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.252703184090652</v>
-      </c>
-      <c r="I55" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2270,28 +1936,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pure_oscillations</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>30</v>
+        <v>0.4393939393939394</v>
       </c>
       <c r="E56" t="n">
-        <v>35860.65984044086</v>
+        <v>8524.594946099687</v>
       </c>
       <c r="F56" t="n">
-        <v>30.00000562212755</v>
+        <v>8524.595354490772</v>
       </c>
       <c r="G56" t="n">
-        <v>0.251138168190398</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.252703184090652</v>
-      </c>
-      <c r="I56" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2303,28 +1963,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pure_oscillations</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>1.43030303030303</v>
       </c>
       <c r="E57" t="n">
-        <v>1070.008064670889</v>
+        <v>8524.594946099687</v>
       </c>
       <c r="F57" t="n">
-        <v>6.006673230616379</v>
+        <v>8524.595354490772</v>
       </c>
       <c r="G57" t="n">
-        <v>0.251138168190398</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.252703184090652</v>
-      </c>
-      <c r="I57" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2336,28 +1990,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pure_oscillations</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>6</v>
+        <v>2.975757575757576</v>
       </c>
       <c r="E58" t="n">
-        <v>97.092178943525</v>
+        <v>8524.594946099687</v>
       </c>
       <c r="F58" t="n">
-        <v>6.110297475797682</v>
+        <v>8524.595354490772</v>
       </c>
       <c r="G58" t="n">
-        <v>0.251138168190398</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.252703184090652</v>
-      </c>
-      <c r="I58" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2369,28 +2017,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pure_oscillations</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>10</v>
+        <v>7.80909090909091</v>
       </c>
       <c r="E59" t="n">
-        <v>125.7406838562173</v>
+        <v>8524.594946099687</v>
       </c>
       <c r="F59" t="n">
-        <v>9.996398874407998</v>
+        <v>8524.595354490772</v>
       </c>
       <c r="G59" t="n">
-        <v>0.251138168190398</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.252703184090652</v>
-      </c>
-      <c r="I59" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2402,28 +2044,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pure_oscillations</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>3.448484848484848</v>
+        <v>11.30606060606061</v>
       </c>
       <c r="E60" t="n">
-        <v>13.68926140842555</v>
+        <v>8524.594946099687</v>
       </c>
       <c r="F60" t="n">
-        <v>8.917740268157681</v>
+        <v>8524.595354490772</v>
       </c>
       <c r="G60" t="n">
-        <v>0.251138168190398</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.252703184090652</v>
-      </c>
-      <c r="I60" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2435,28 +2071,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pure_oscillations</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>7</v>
       </c>
       <c r="D61" t="n">
-        <v>10.60606060606061</v>
+        <v>15.61515151515152</v>
       </c>
       <c r="E61" t="n">
-        <v>7.746074369656718</v>
+        <v>8524.594946099687</v>
       </c>
       <c r="F61" t="n">
-        <v>13.80555573591195</v>
+        <v>8524.595354490772</v>
       </c>
       <c r="G61" t="n">
-        <v>0.251138168190398</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.252703184090652</v>
-      </c>
-      <c r="I61" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2468,7 +2098,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2478,19 +2108,13 @@
         <v>6</v>
       </c>
       <c r="E62" t="n">
-        <v>25977.36132957319</v>
+        <v>0.5830259024266475</v>
       </c>
       <c r="F62" t="n">
-        <v>6.000212804224681</v>
+        <v>0.5988363334848532</v>
       </c>
       <c r="G62" t="n">
-        <v>0.7498662605531268</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.751423621200319</v>
-      </c>
-      <c r="I62" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -2501,7 +2125,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2511,19 +2135,13 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>37188.8615605774</v>
+        <v>0.5830259024266475</v>
       </c>
       <c r="F63" t="n">
-        <v>10.00001200656734</v>
+        <v>0.5988363334848532</v>
       </c>
       <c r="G63" t="n">
-        <v>0.7498662605531268</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.751423621200319</v>
-      </c>
-      <c r="I63" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -2534,29 +2152,23 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E64" t="n">
-        <v>35860.65761103828</v>
+        <v>0.5830259024266475</v>
       </c>
       <c r="F64" t="n">
-        <v>30.00000562074191</v>
+        <v>0.5988363334848532</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7498662605531268</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.751423621200319</v>
-      </c>
-      <c r="I64" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -2567,29 +2179,23 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>6</v>
+        <v>0.6757575757575758</v>
       </c>
       <c r="E65" t="n">
-        <v>1069.987227859836</v>
+        <v>0.5830259024266475</v>
       </c>
       <c r="F65" t="n">
-        <v>6.006683609724319</v>
+        <v>0.5988363334848532</v>
       </c>
       <c r="G65" t="n">
-        <v>0.7498662605531268</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.751423621200319</v>
-      </c>
-      <c r="I65" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -2600,29 +2206,23 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>6</v>
+        <v>15.97272727272727</v>
       </c>
       <c r="E66" t="n">
-        <v>97.07616536915053</v>
+        <v>0.5830259024266475</v>
       </c>
       <c r="F66" t="n">
-        <v>6.110586331959658</v>
+        <v>0.5988363334848532</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7498662605531268</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.751423621200319</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -2633,29 +2233,23 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E67" t="n">
-        <v>125.7159981413403</v>
+        <v>0.5830259024266475</v>
       </c>
       <c r="F67" t="n">
-        <v>9.996404050070254</v>
+        <v>0.5988363334848532</v>
       </c>
       <c r="G67" t="n">
-        <v>0.7498662605531268</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.751423621200319</v>
-      </c>
-      <c r="I67" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -2666,28 +2260,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
         <v>0.00303030303030303</v>
       </c>
       <c r="E68" t="n">
-        <v>13.69188766844798</v>
+        <v>870253.2755262933</v>
       </c>
       <c r="F68" t="n">
-        <v>8.896686741264022</v>
+        <v>870253.2759342113</v>
       </c>
       <c r="G68" t="n">
-        <v>0.7498662605531268</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.751423621200319</v>
-      </c>
-      <c r="I68" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2699,28 +2287,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>10.60909090909091</v>
+        <v>5.090909090909091</v>
       </c>
       <c r="E69" t="n">
-        <v>7.741531084879333</v>
+        <v>870253.2755262933</v>
       </c>
       <c r="F69" t="n">
-        <v>13.80645152524071</v>
+        <v>870253.2759342113</v>
       </c>
       <c r="G69" t="n">
-        <v>0.7498662605531268</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.751423621200319</v>
-      </c>
-      <c r="I69" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2732,28 +2314,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>6.003030303030303</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E70" t="n">
-        <v>16537756.18410319</v>
+        <v>870253.2755262933</v>
       </c>
       <c r="F70" t="n">
-        <v>6.001042678868385</v>
+        <v>870253.2759342113</v>
       </c>
       <c r="G70" t="n">
-        <v>0.2517546808672814</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.2556157059030716</v>
-      </c>
-      <c r="I70" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2765,28 +2341,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>9.996969696969696</v>
+        <v>1.451515151515151</v>
       </c>
       <c r="E71" t="n">
-        <v>21403385.16360461</v>
+        <v>870253.2755262933</v>
       </c>
       <c r="F71" t="n">
-        <v>9.998003390941767</v>
+        <v>870253.2759342113</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2517546808672814</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.2556157059030716</v>
-      </c>
-      <c r="I71" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2798,28 +2368,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>30.0030303030303</v>
+        <v>2.975757575757576</v>
       </c>
       <c r="E72" t="n">
-        <v>19299489.20902139</v>
+        <v>870253.2755262933</v>
       </c>
       <c r="F72" t="n">
-        <v>30.00074700357056</v>
+        <v>870253.2759342113</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2517546808672814</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.2556157059030716</v>
-      </c>
-      <c r="I72" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2831,28 +2395,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>5.996969696969697</v>
+        <v>7.836363636363636</v>
       </c>
       <c r="E73" t="n">
-        <v>551648.9304155546</v>
+        <v>870253.2755262933</v>
       </c>
       <c r="F73" t="n">
-        <v>6.025779153476125</v>
+        <v>870253.2759342113</v>
       </c>
       <c r="G73" t="n">
-        <v>0.2517546808672814</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.2556157059030716</v>
-      </c>
-      <c r="I73" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2864,28 +2422,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>2.627272727272727</v>
+        <v>11.34242424242424</v>
       </c>
       <c r="E74" t="n">
-        <v>58370.4121026524</v>
+        <v>870253.2755262933</v>
       </c>
       <c r="F74" t="n">
-        <v>5.158970544268721</v>
+        <v>870253.2759342113</v>
       </c>
       <c r="G74" t="n">
-        <v>0.2517546808672814</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.2556157059030716</v>
-      </c>
-      <c r="I74" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2897,358 +2449,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D75" t="n">
-        <v>10.46060606060606</v>
+        <v>15.61818181818182</v>
       </c>
       <c r="E75" t="n">
-        <v>170879.8701699958</v>
+        <v>870253.2755262933</v>
       </c>
       <c r="F75" t="n">
-        <v>10.80880344178406</v>
+        <v>870253.2759342113</v>
       </c>
       <c r="G75" t="n">
-        <v>0.2517546808672814</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.2556157059030716</v>
-      </c>
-      <c r="I75" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>VMDtransformer</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>mrw_modulated</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>6</v>
-      </c>
-      <c r="D76" t="n">
-        <v>22.75454545454545</v>
-      </c>
-      <c r="E76" t="n">
-        <v>10192.22868619577</v>
-      </c>
-      <c r="F76" t="n">
-        <v>22.83048776791259</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.2517546808672814</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.2556157059030716</v>
-      </c>
-      <c r="I76" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>VMDtransformer</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>mrw_modulated</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>7</v>
-      </c>
-      <c r="D77" t="n">
-        <v>29.07575757575757</v>
-      </c>
-      <c r="E77" t="n">
-        <v>62229.9596565691</v>
-      </c>
-      <c r="F77" t="n">
-        <v>29.20709011359913</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.2517546808672814</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.2556157059030716</v>
-      </c>
-      <c r="I77" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>VMDtransformer</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>mrw_modulated_with_noise</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>5.996969696969697</v>
-      </c>
-      <c r="E78" t="n">
-        <v>43872327.39471206</v>
-      </c>
-      <c r="F78" t="n">
-        <v>6.00022976999868</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.2516958101448342</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.2537643923818513</v>
-      </c>
-      <c r="I78" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>VMDtransformer</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>mrw_modulated_with_noise</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" t="n">
-        <v>9.996969696969696</v>
-      </c>
-      <c r="E79" t="n">
-        <v>55750398.4785943</v>
-      </c>
-      <c r="F79" t="n">
-        <v>9.999803792930621</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.2516958101448342</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.2537643923818513</v>
-      </c>
-      <c r="I79" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>VMDtransformer</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>mrw_modulated_with_noise</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>2</v>
-      </c>
-      <c r="D80" t="n">
-        <v>29.9969696969697</v>
-      </c>
-      <c r="E80" t="n">
-        <v>54008487.34828855</v>
-      </c>
-      <c r="F80" t="n">
-        <v>30.00066001943789</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.2516958101448342</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.2537643923818513</v>
-      </c>
-      <c r="I80" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>VMDtransformer</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>mrw_modulated_with_noise</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>3</v>
-      </c>
-      <c r="D81" t="n">
-        <v>5.996969696969697</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1579041.56597787</v>
-      </c>
-      <c r="F81" t="n">
-        <v>6.006859025190025</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.2516958101448342</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.2537643923818513</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>VMDtransformer</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>mrw_modulated_with_noise</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>4</v>
-      </c>
-      <c r="D82" t="n">
-        <v>5.260606060606061</v>
-      </c>
-      <c r="E82" t="n">
-        <v>97376.45958742705</v>
-      </c>
-      <c r="F82" t="n">
-        <v>6.100285402395707</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.2516958101448342</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.2537643923818513</v>
-      </c>
-      <c r="I82" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>VMDtransformer</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>mrw_modulated_with_noise</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>5</v>
-      </c>
-      <c r="D83" t="n">
-        <v>10.0030303030303</v>
-      </c>
-      <c r="E83" t="n">
-        <v>289167.2673937109</v>
-      </c>
-      <c r="F83" t="n">
-        <v>10.09298856377703</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.2516958101448342</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.2537643923818513</v>
-      </c>
-      <c r="I83" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>VMDtransformer</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>mrw_modulated_with_noise</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>6</v>
-      </c>
-      <c r="D84" t="n">
-        <v>17.68787878787879</v>
-      </c>
-      <c r="E84" t="n">
-        <v>9304.655291743333</v>
-      </c>
-      <c r="F84" t="n">
-        <v>17.91259218586991</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.2516958101448342</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.2537643923818513</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>VMDtransformer</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>mrw_modulated_with_noise</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>7</v>
-      </c>
-      <c r="D85" t="n">
-        <v>29.26060606060606</v>
-      </c>
-      <c r="E85" t="n">
-        <v>66273.18200508875</v>
-      </c>
-      <c r="F85" t="n">
-        <v>29.17214772177678</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.2516958101448342</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.2537643923818513</v>
-      </c>
-      <c r="I85" t="n">
         <v>8</v>
       </c>
     </row>

--- a/notebooks/03_signal_generation/decomposition_full_report.xlsx
+++ b/notebooks/03_signal_generation/decomposition_full_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,13 +488,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4569350964272001</v>
+        <v>0.5312713929928387</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4570057470809342</v>
+        <v>0.5313677035031281</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -515,13 +515,13 @@
         <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4569350964272001</v>
+        <v>0.5312713929928387</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4570057470809342</v>
+        <v>0.5313677035031281</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4569350964272001</v>
+        <v>0.5312713929928387</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4570057470809342</v>
+        <v>0.5313677035031281</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -566,16 +566,16 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.7939393939393939</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4569350964272001</v>
+        <v>0.5312713929928387</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4570057470809342</v>
+        <v>0.5313677035031281</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -593,16 +593,16 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4569350964272001</v>
+        <v>0.5312713929928387</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4570057470809342</v>
+        <v>0.5313677035031281</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -620,16 +620,16 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07878787878787878</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4569350964272001</v>
+        <v>0.5312713929928387</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4570057470809342</v>
+        <v>0.5313677035031281</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -640,23 +640,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>pure_oscillations</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>8.727272727272727</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="E8" t="n">
-        <v>8524.594940693652</v>
+        <v>0.5312713929928387</v>
       </c>
       <c r="F8" t="n">
-        <v>8525.576640880541</v>
+        <v>0.5313677035031281</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -667,23 +667,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>pure_oscillations</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>3.612121212121212</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="E9" t="n">
-        <v>8524.594940693652</v>
+        <v>0.5312713929928387</v>
       </c>
       <c r="F9" t="n">
-        <v>8525.576640880541</v>
+        <v>0.5313677035031281</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -698,16 +698,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.724242424242424</v>
+        <v>9.818181818181818</v>
       </c>
       <c r="E10" t="n">
-        <v>8524.594940693652</v>
+        <v>1821006.886627642</v>
       </c>
       <c r="F10" t="n">
-        <v>8525.576640880541</v>
+        <v>1821008.502945088</v>
       </c>
       <c r="G10" t="n">
         <v>9</v>
@@ -725,16 +725,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9333333333333333</v>
+        <v>4.084848484848485</v>
       </c>
       <c r="E11" t="n">
-        <v>8524.594940693652</v>
+        <v>1821006.886627642</v>
       </c>
       <c r="F11" t="n">
-        <v>8525.576640880541</v>
+        <v>1821008.502945088</v>
       </c>
       <c r="G11" t="n">
         <v>9</v>
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5393939393939394</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="E12" t="n">
-        <v>8524.594940693652</v>
+        <v>1821006.886627642</v>
       </c>
       <c r="F12" t="n">
-        <v>8525.576640880541</v>
+        <v>1821008.502945088</v>
       </c>
       <c r="G12" t="n">
         <v>9</v>
@@ -779,16 +779,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2939393939393939</v>
+        <v>0.9363636363636364</v>
       </c>
       <c r="E13" t="n">
-        <v>8524.594940693652</v>
+        <v>1821006.886627642</v>
       </c>
       <c r="F13" t="n">
-        <v>8525.576640880541</v>
+        <v>1821008.502945088</v>
       </c>
       <c r="G13" t="n">
         <v>9</v>
@@ -806,16 +806,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03939393939393939</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="E14" t="n">
-        <v>8524.594940693652</v>
+        <v>1821006.886627642</v>
       </c>
       <c r="F14" t="n">
-        <v>8525.576640880541</v>
+        <v>1821008.502945088</v>
       </c>
       <c r="G14" t="n">
         <v>9</v>
@@ -833,16 +833,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03939393939393939</v>
+        <v>0.2848484848484849</v>
       </c>
       <c r="E15" t="n">
-        <v>8524.594940693652</v>
+        <v>1821006.886627642</v>
       </c>
       <c r="F15" t="n">
-        <v>8525.576640880541</v>
+        <v>1821008.502945088</v>
       </c>
       <c r="G15" t="n">
         <v>9</v>
@@ -860,16 +860,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00303030303030303</v>
+        <v>0.1121212121212121</v>
       </c>
       <c r="E16" t="n">
-        <v>8524.594940693652</v>
+        <v>1821006.886627642</v>
       </c>
       <c r="F16" t="n">
-        <v>8525.576640880541</v>
+        <v>1821008.502945088</v>
       </c>
       <c r="G16" t="n">
         <v>9</v>
@@ -883,23 +883,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>0.03939393939393939</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5829560236536961</v>
+        <v>1821006.886627642</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5830372105149344</v>
+        <v>1821008.502945088</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -910,23 +910,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>0.00303030303030303</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5829560236536961</v>
+        <v>1821006.886627642</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5830372105149344</v>
+        <v>1821008.502945088</v>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -941,16 +941,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5829560236536961</v>
+        <v>0.5817695262865822</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5830372105149344</v>
+        <v>0.5818284712813261</v>
       </c>
       <c r="G19" t="n">
         <v>7</v>
@@ -968,16 +968,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6757575757575758</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5829560236536961</v>
+        <v>0.5817695262865822</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5830372105149344</v>
+        <v>0.5818284712813261</v>
       </c>
       <c r="G20" t="n">
         <v>7</v>
@@ -995,16 +995,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0.303030303030303</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5829560236536961</v>
+        <v>0.5817695262865822</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5830372105149344</v>
+        <v>0.5818284712813261</v>
       </c>
       <c r="G21" t="n">
         <v>7</v>
@@ -1022,16 +1022,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1757575757575758</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5829560236536961</v>
+        <v>0.5817695262865822</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5830372105149344</v>
+        <v>0.5818284712813261</v>
       </c>
       <c r="G22" t="n">
         <v>7</v>
@@ -1049,16 +1049,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1060606060606061</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5829560236536961</v>
+        <v>0.5817695262865822</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5830372105149344</v>
+        <v>0.5818284712813261</v>
       </c>
       <c r="G23" t="n">
         <v>7</v>
@@ -1072,23 +1072,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>mrw_modulated_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>9.984848484848484</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E24" t="n">
-        <v>870253.2755208883</v>
+        <v>0.5817695262865822</v>
       </c>
       <c r="F24" t="n">
-        <v>870255.828223784</v>
+        <v>0.5818284712813261</v>
       </c>
       <c r="G24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1099,23 +1099,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>mrw_modulated_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>4.587878787878788</v>
+        <v>0.0696969696969697</v>
       </c>
       <c r="E25" t="n">
-        <v>870253.2755208883</v>
+        <v>0.5817695262865822</v>
       </c>
       <c r="F25" t="n">
-        <v>870255.828223784</v>
+        <v>0.5818284712813261</v>
       </c>
       <c r="G25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2.281818181818182</v>
+        <v>9.227272727272727</v>
       </c>
       <c r="E26" t="n">
-        <v>870253.2755208883</v>
+        <v>2128760.849862084</v>
       </c>
       <c r="F26" t="n">
-        <v>870255.828223784</v>
+        <v>2128761.690938307</v>
       </c>
       <c r="G26" t="n">
         <v>9</v>
@@ -1157,16 +1157,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9181818181818182</v>
+        <v>4.493939393939394</v>
       </c>
       <c r="E27" t="n">
-        <v>870253.2755208883</v>
+        <v>2128760.849862084</v>
       </c>
       <c r="F27" t="n">
-        <v>870255.828223784</v>
+        <v>2128761.690938307</v>
       </c>
       <c r="G27" t="n">
         <v>9</v>
@@ -1184,16 +1184,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4787878787878788</v>
+        <v>2.381818181818182</v>
       </c>
       <c r="E28" t="n">
-        <v>870253.2755208883</v>
+        <v>2128760.849862084</v>
       </c>
       <c r="F28" t="n">
-        <v>870255.828223784</v>
+        <v>2128761.690938307</v>
       </c>
       <c r="G28" t="n">
         <v>9</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1909090909090909</v>
+        <v>0.9121212121212121</v>
       </c>
       <c r="E29" t="n">
-        <v>870253.2755208883</v>
+        <v>2128760.849862084</v>
       </c>
       <c r="F29" t="n">
-        <v>870255.828223784</v>
+        <v>2128761.690938307</v>
       </c>
       <c r="G29" t="n">
         <v>9</v>
@@ -1238,16 +1238,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="E30" t="n">
-        <v>870253.2755208883</v>
+        <v>2128760.849862084</v>
       </c>
       <c r="F30" t="n">
-        <v>870255.828223784</v>
+        <v>2128761.690938307</v>
       </c>
       <c r="G30" t="n">
         <v>9</v>
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03939393939393939</v>
+        <v>0.203030303030303</v>
       </c>
       <c r="E31" t="n">
-        <v>870253.2755208883</v>
+        <v>2128760.849862084</v>
       </c>
       <c r="F31" t="n">
-        <v>870255.828223784</v>
+        <v>2128761.690938307</v>
       </c>
       <c r="G31" t="n">
         <v>9</v>
@@ -1292,16 +1292,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00303030303030303</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E32" t="n">
-        <v>870253.2755208883</v>
+        <v>2128760.849862084</v>
       </c>
       <c r="F32" t="n">
-        <v>870255.828223784</v>
+        <v>2128761.690938307</v>
       </c>
       <c r="G32" t="n">
         <v>9</v>
@@ -1310,55 +1310,55 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>VMD</t>
+          <t>EMD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pure_oscillations</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4569598965554873</v>
+        <v>2128760.849862084</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4569598965554873</v>
+        <v>2128761.690938307</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>VMD</t>
+          <t>EMD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pure_oscillations</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>0.00303030303030303</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4569598965554873</v>
+        <v>2128760.849862084</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4569598965554873</v>
+        <v>2128761.690938307</v>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -1373,16 +1373,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4569598965554873</v>
+        <v>0.531292314855903</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4569598965554873</v>
+        <v>0.531292314855903</v>
       </c>
       <c r="G35" t="n">
         <v>4</v>
@@ -1400,16 +1400,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4569598965554873</v>
+        <v>0.531292314855903</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4569598965554873</v>
+        <v>0.531292314855903</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -1423,20 +1423,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>pure_oscillations</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>0.00303030303030303</v>
+        <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>8524.594942971229</v>
+        <v>0.531292314855903</v>
       </c>
       <c r="F37" t="n">
-        <v>8524.594942971229</v>
+        <v>0.531292314855903</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
@@ -1450,20 +1450,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>pure_oscillations</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>4.960606060606061</v>
+        <v>30</v>
       </c>
       <c r="E38" t="n">
-        <v>8524.594942971229</v>
+        <v>0.531292314855903</v>
       </c>
       <c r="F38" t="n">
-        <v>8524.594942971229</v>
+        <v>0.531292314855903</v>
       </c>
       <c r="G38" t="n">
         <v>4</v>
@@ -1481,16 +1481,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1.351515151515152</v>
+        <v>0.00303030303030303</v>
       </c>
       <c r="E39" t="n">
-        <v>8524.594942971229</v>
+        <v>1821006.886629919</v>
       </c>
       <c r="F39" t="n">
-        <v>8524.594942971229</v>
+        <v>1821006.886629919</v>
       </c>
       <c r="G39" t="n">
         <v>4</v>
@@ -1508,16 +1508,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>11.73333333333333</v>
+        <v>4.924242424242424</v>
       </c>
       <c r="E40" t="n">
-        <v>8524.594942971229</v>
+        <v>1821006.886629919</v>
       </c>
       <c r="F40" t="n">
-        <v>8524.594942971229</v>
+        <v>1821006.886629919</v>
       </c>
       <c r="G40" t="n">
         <v>4</v>
@@ -1531,20 +1531,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>1.390909090909091</v>
       </c>
       <c r="E41" t="n">
-        <v>0.58298996893692</v>
+        <v>1821006.886629919</v>
       </c>
       <c r="F41" t="n">
-        <v>0.58298996893692</v>
+        <v>1821006.886629919</v>
       </c>
       <c r="G41" t="n">
         <v>4</v>
@@ -1558,20 +1558,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>11.80909090909091</v>
       </c>
       <c r="E42" t="n">
-        <v>0.58298996893692</v>
+        <v>1821006.886629919</v>
       </c>
       <c r="F42" t="n">
-        <v>0.58298996893692</v>
+        <v>1821006.886629919</v>
       </c>
       <c r="G42" t="n">
         <v>4</v>
@@ -1589,16 +1589,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>0.58298996893692</v>
+        <v>0.5818083280014096</v>
       </c>
       <c r="F43" t="n">
-        <v>0.58298996893692</v>
+        <v>0.5818083280014096</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E44" t="n">
-        <v>0.58298996893692</v>
+        <v>0.5818083280014096</v>
       </c>
       <c r="F44" t="n">
-        <v>0.58298996893692</v>
+        <v>0.5818083280014096</v>
       </c>
       <c r="G44" t="n">
         <v>4</v>
@@ -1639,20 +1639,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>mrw_modulated_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>0.00303030303030303</v>
+        <v>6</v>
       </c>
       <c r="E45" t="n">
-        <v>870253.2755231675</v>
+        <v>0.5818083280014096</v>
       </c>
       <c r="F45" t="n">
-        <v>870253.2755231675</v>
+        <v>0.5818083280014096</v>
       </c>
       <c r="G45" t="n">
         <v>4</v>
@@ -1666,20 +1666,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>mrw_modulated_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>4.942424242424242</v>
+        <v>30</v>
       </c>
       <c r="E46" t="n">
-        <v>870253.2755231675</v>
+        <v>0.5818083280014096</v>
       </c>
       <c r="F46" t="n">
-        <v>870253.2755231675</v>
+        <v>0.5818083280014096</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -1697,16 +1697,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1.363636363636364</v>
+        <v>0.00303030303030303</v>
       </c>
       <c r="E47" t="n">
-        <v>870253.2755231675</v>
+        <v>2128760.849864362</v>
       </c>
       <c r="F47" t="n">
-        <v>870253.2755231675</v>
+        <v>2128760.849864362</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>11.77272727272727</v>
+        <v>4.96969696969697</v>
       </c>
       <c r="E48" t="n">
-        <v>870253.2755231675</v>
+        <v>2128760.849864362</v>
       </c>
       <c r="F48" t="n">
-        <v>870253.2755231675</v>
+        <v>2128760.849864362</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -1742,55 +1742,55 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>VMDtransformer</t>
+          <t>VMD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pure_oscillations</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>1.375757575757576</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4569916017400562</v>
+        <v>2128760.849864362</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4690430322598883</v>
+        <v>2128760.849864362</v>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>VMDtransformer</t>
+          <t>VMD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pure_oscillations</t>
+          <t>mrw_modulated_with_noise</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4569916017400562</v>
+        <v>2128760.849864362</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4690430322598883</v>
+        <v>2128760.849864362</v>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -1805,19 +1805,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>2.884848484848485</v>
+        <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4569916017400562</v>
+        <v>0.5313184793339648</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4690430322598883</v>
+        <v>0.5438825581681348</v>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -1832,19 +1832,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>14.79090909090909</v>
+        <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4569916017400562</v>
+        <v>0.5313184793339648</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4690430322598883</v>
+        <v>0.5438825581681348</v>
       </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -1859,19 +1859,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4569916017400562</v>
+        <v>0.5313184793339648</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4690430322598883</v>
+        <v>0.5438825581681348</v>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -1882,23 +1882,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>pure_oscillations</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>0.00303030303030303</v>
+        <v>1.121212121212121</v>
       </c>
       <c r="E54" t="n">
-        <v>8524.594946099687</v>
+        <v>0.5313184793339648</v>
       </c>
       <c r="F54" t="n">
-        <v>8524.595354490772</v>
+        <v>0.5438825581681348</v>
       </c>
       <c r="G54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -1909,23 +1909,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>pure_oscillations</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>5.072727272727272</v>
+        <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>8524.594946099687</v>
+        <v>0.5313184793339648</v>
       </c>
       <c r="F55" t="n">
-        <v>8524.595354490772</v>
+        <v>0.5438825581681348</v>
       </c>
       <c r="G55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -1936,23 +1936,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>pure_oscillations</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4393939393939394</v>
+        <v>16.06060606060606</v>
       </c>
       <c r="E56" t="n">
-        <v>8524.594946099687</v>
+        <v>0.5313184793339648</v>
       </c>
       <c r="F56" t="n">
-        <v>8524.595354490772</v>
+        <v>0.5438825581681348</v>
       </c>
       <c r="G56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -1963,23 +1963,23 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pure_oscillations_with_noise</t>
+          <t>pure_oscillations</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>1.43030303030303</v>
+        <v>30</v>
       </c>
       <c r="E57" t="n">
-        <v>8524.594946099687</v>
+        <v>0.5313184793339648</v>
       </c>
       <c r="F57" t="n">
-        <v>8524.595354490772</v>
+        <v>0.5438825581681348</v>
       </c>
       <c r="G57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -1994,16 +1994,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>2.975757575757576</v>
+        <v>0.00303030303030303</v>
       </c>
       <c r="E58" t="n">
-        <v>8524.594946099687</v>
+        <v>1821006.886633051</v>
       </c>
       <c r="F58" t="n">
-        <v>8524.595354490772</v>
+        <v>1821006.887039928</v>
       </c>
       <c r="G58" t="n">
         <v>8</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>7.80909090909091</v>
+        <v>5.121212121212121</v>
       </c>
       <c r="E59" t="n">
-        <v>8524.594946099687</v>
+        <v>1821006.886633051</v>
       </c>
       <c r="F59" t="n">
-        <v>8524.595354490772</v>
+        <v>1821006.887039928</v>
       </c>
       <c r="G59" t="n">
         <v>8</v>
@@ -2048,16 +2048,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>11.30606060606061</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E60" t="n">
-        <v>8524.594946099687</v>
+        <v>1821006.886633051</v>
       </c>
       <c r="F60" t="n">
-        <v>8524.595354490772</v>
+        <v>1821006.887039928</v>
       </c>
       <c r="G60" t="n">
         <v>8</v>
@@ -2075,16 +2075,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>15.61515151515152</v>
+        <v>1.448484848484848</v>
       </c>
       <c r="E61" t="n">
-        <v>8524.594946099687</v>
+        <v>1821006.886633051</v>
       </c>
       <c r="F61" t="n">
-        <v>8524.595354490772</v>
+        <v>1821006.887039928</v>
       </c>
       <c r="G61" t="n">
         <v>8</v>
@@ -2098,23 +2098,23 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>6</v>
+        <v>2.972727272727273</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5830259024266475</v>
+        <v>1821006.886633051</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5988363334848532</v>
+        <v>1821006.887039928</v>
       </c>
       <c r="G62" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -2125,23 +2125,23 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>10</v>
+        <v>7.845454545454546</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5830259024266475</v>
+        <v>1821006.886633051</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5988363334848532</v>
+        <v>1821006.887039928</v>
       </c>
       <c r="G63" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -2152,23 +2152,23 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>6</v>
+        <v>11.36666666666667</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5830259024266475</v>
+        <v>1821006.886633051</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5988363334848532</v>
+        <v>1821006.887039928</v>
       </c>
       <c r="G64" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -2179,23 +2179,23 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>mrw_modulated</t>
+          <t>pure_oscillations_with_noise</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6757575757575758</v>
+        <v>15.6030303030303</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5830259024266475</v>
+        <v>1821006.886633051</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5988363334848532</v>
+        <v>1821006.887039928</v>
       </c>
       <c r="G65" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -2210,16 +2210,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>15.97272727272727</v>
+        <v>6</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5830259024266475</v>
+        <v>0.5818399044679915</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5988363334848532</v>
+        <v>0.5922481583997967</v>
       </c>
       <c r="G66" t="n">
         <v>6</v>
@@ -2237,16 +2237,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5830259024266475</v>
+        <v>0.5818399044679915</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5988363334848532</v>
+        <v>0.5922481583997967</v>
       </c>
       <c r="G67" t="n">
         <v>6</v>
@@ -2260,23 +2260,23 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>mrw_modulated_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>0.00303030303030303</v>
+        <v>6</v>
       </c>
       <c r="E68" t="n">
-        <v>870253.2755262933</v>
+        <v>0.5818399044679915</v>
       </c>
       <c r="F68" t="n">
-        <v>870253.2759342113</v>
+        <v>0.5922481583997967</v>
       </c>
       <c r="G68" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -2287,23 +2287,23 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>mrw_modulated_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5.090909090909091</v>
+        <v>1.778787878787879</v>
       </c>
       <c r="E69" t="n">
-        <v>870253.2755262933</v>
+        <v>0.5818399044679915</v>
       </c>
       <c r="F69" t="n">
-        <v>870253.2759342113</v>
+        <v>0.5922481583997967</v>
       </c>
       <c r="G69" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -2314,23 +2314,23 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>mrw_modulated_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4545454545454545</v>
+        <v>16.39393939393939</v>
       </c>
       <c r="E70" t="n">
-        <v>870253.2755262933</v>
+        <v>0.5818399044679915</v>
       </c>
       <c r="F70" t="n">
-        <v>870253.2759342113</v>
+        <v>0.5922481583997967</v>
       </c>
       <c r="G70" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -2341,23 +2341,23 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>mrw_modulated_with_noise</t>
+          <t>mrw_modulated</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>1.451515151515151</v>
+        <v>30</v>
       </c>
       <c r="E71" t="n">
-        <v>870253.2755262933</v>
+        <v>0.5818399044679915</v>
       </c>
       <c r="F71" t="n">
-        <v>870253.2759342113</v>
+        <v>0.5922481583997967</v>
       </c>
       <c r="G71" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
@@ -2372,16 +2372,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>2.975757575757576</v>
+        <v>0.00303030303030303</v>
       </c>
       <c r="E72" t="n">
-        <v>870253.2755262933</v>
+        <v>2128760.849867488</v>
       </c>
       <c r="F72" t="n">
-        <v>870253.2759342113</v>
+        <v>2128760.850274857</v>
       </c>
       <c r="G72" t="n">
         <v>8</v>
@@ -2399,16 +2399,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>7.836363636363636</v>
+        <v>5.066666666666666</v>
       </c>
       <c r="E73" t="n">
-        <v>870253.2755262933</v>
+        <v>2128760.849867488</v>
       </c>
       <c r="F73" t="n">
-        <v>870253.2759342113</v>
+        <v>2128760.850274857</v>
       </c>
       <c r="G73" t="n">
         <v>8</v>
@@ -2426,16 +2426,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>11.34242424242424</v>
+        <v>0.4484848484848485</v>
       </c>
       <c r="E74" t="n">
-        <v>870253.2755262933</v>
+        <v>2128760.849867488</v>
       </c>
       <c r="F74" t="n">
-        <v>870253.2759342113</v>
+        <v>2128760.850274857</v>
       </c>
       <c r="G74" t="n">
         <v>8</v>
@@ -2453,18 +2453,126 @@
         </is>
       </c>
       <c r="C75" t="n">
+        <v>3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.466666666666667</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2128760.849867488</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2128760.850274857</v>
+      </c>
+      <c r="G75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>VMDtransformer</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>mrw_modulated_with_noise</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>4</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.972727272727273</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2128760.849867488</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2128760.850274857</v>
+      </c>
+      <c r="G76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>VMDtransformer</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>mrw_modulated_with_noise</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>7.806060606060606</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2128760.849867488</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2128760.850274857</v>
+      </c>
+      <c r="G77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>VMDtransformer</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>mrw_modulated_with_noise</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>6</v>
+      </c>
+      <c r="D78" t="n">
+        <v>11.40606060606061</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2128760.849867488</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2128760.850274857</v>
+      </c>
+      <c r="G78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>VMDtransformer</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>mrw_modulated_with_noise</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
         <v>7</v>
       </c>
-      <c r="D75" t="n">
-        <v>15.61818181818182</v>
-      </c>
-      <c r="E75" t="n">
-        <v>870253.2755262933</v>
-      </c>
-      <c r="F75" t="n">
-        <v>870253.2759342113</v>
-      </c>
-      <c r="G75" t="n">
+      <c r="D79" t="n">
+        <v>15.62121212121212</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2128760.849867488</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2128760.850274857</v>
+      </c>
+      <c r="G79" t="n">
         <v>8</v>
       </c>
     </row>
